--- a/example/mp_reports_01KP_26.05.2018-1.31.6.883_50_items/uncorreled_50.xlsx
+++ b/example/mp_reports_01KP_26.05.2018-1.31.6.883_50_items/uncorreled_50.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Elapsed Time (ms)</t>
   </si>
@@ -77,7 +77,10 @@
     <t>GA deviation</t>
   </si>
   <si>
-    <t xml:space="preserve"> max deviation</t>
+    <t>GA avg deviation</t>
+  </si>
+  <si>
+    <t>GA max deviation</t>
   </si>
 </sst>
 </file>
@@ -402,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,7 +2193,7 @@
         <v>*BB DFS*</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" ref="B38:B40" si="3">COUNTIF($H$3:$H$32,A38)/$B$33</f>
+        <f>COUNTIF($H$3:$H$32,A38)/$B$33</f>
         <v>0.93333333333333335</v>
       </c>
     </row>
@@ -2210,7 +2213,7 @@
         <v>*GA*</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B38:B40" si="3">COUNTIF($H$3:$H$32,A40)/$B$33</f>
         <v>0</v>
       </c>
     </row>
@@ -2229,20 +2232,25 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="2">
+        <f>AVERAGE(Q3:Q32)</f>
+        <v>4.5006629591667262E-4</v>
+      </c>
+      <c r="B44" s="2">
         <f>MAX(Q3:Q32)</f>
         <v>4.0191625095408433E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/example/mp_reports_01KP_26.05.2018-1.31.6.883_50_items/uncorreled_50.xlsx
+++ b/example/mp_reports_01KP_26.05.2018-1.31.6.883_50_items/uncorreled_50.xlsx
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2213,7 @@
         <v>*GA*</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" ref="B38:B40" si="3">COUNTIF($H$3:$H$32,A40)/$B$33</f>
+        <f t="shared" ref="B40" si="3">COUNTIF($H$3:$H$32,A40)/$B$33</f>
         <v>0</v>
       </c>
     </row>
